--- a/predictions полгода до/прогнозы_SARIMA_211.xlsx
+++ b/predictions полгода до/прогнозы_SARIMA_211.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22736006.67446654</v>
+        <v>22513955.36976206</v>
       </c>
       <c r="C2" t="n">
-        <v>24453422.09456215</v>
+        <v>22046809.1579817</v>
       </c>
       <c r="D2" t="n">
-        <v>23107549.75235291</v>
+        <v>21133402.20223</v>
       </c>
       <c r="E2" t="n">
-        <v>20887584.26396955</v>
+        <v>23845090.69349271</v>
       </c>
       <c r="F2" t="n">
-        <v>24210425.69952901</v>
+        <v>24472404.06477536</v>
       </c>
       <c r="G2" t="n">
-        <v>24438257.78738173</v>
+        <v>20886576.60064174</v>
       </c>
       <c r="H2" t="n">
-        <v>20731029.72692042</v>
+        <v>25264207.50723449</v>
       </c>
       <c r="I2" t="n">
-        <v>25389943.03062805</v>
+        <v>25725770.12221394</v>
       </c>
       <c r="J2" t="n">
-        <v>25268957.59287956</v>
+        <v>24433331.4754956</v>
       </c>
       <c r="K2" t="n">
-        <v>24062462.6955045</v>
+        <v>22302899.91508835</v>
       </c>
       <c r="L2" t="n">
-        <v>21525411.43931677</v>
+        <v>24187341.83218339</v>
       </c>
       <c r="M2" t="n">
-        <v>23893612.34871064</v>
+        <v>24087918.01806326</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3982555.389954858</v>
+        <v>13133961.86571051</v>
       </c>
       <c r="C3" t="n">
-        <v>13033033.31018258</v>
+        <v>6141660.305499143</v>
       </c>
       <c r="D3" t="n">
-        <v>5076648.551101595</v>
+        <v>17672294.90979113</v>
       </c>
       <c r="E3" t="n">
-        <v>15000026.63307076</v>
+        <v>13673370.46527459</v>
       </c>
       <c r="F3" t="n">
-        <v>15117807.42800136</v>
+        <v>21458751.3120007</v>
       </c>
       <c r="G3" t="n">
-        <v>17606681.6422401</v>
+        <v>18878048.63017005</v>
       </c>
       <c r="H3" t="n">
-        <v>19345859.69618037</v>
+        <v>11259838.72556318</v>
       </c>
       <c r="I3" t="n">
-        <v>10498882.52491072</v>
+        <v>40300033.28285068</v>
       </c>
       <c r="J3" t="n">
-        <v>36597597.53591587</v>
+        <v>19228824.93049491</v>
       </c>
       <c r="K3" t="n">
-        <v>22061491.89416244</v>
+        <v>29532838.66334974</v>
       </c>
       <c r="L3" t="n">
-        <v>24477637.51083502</v>
+        <v>27982348.54889093</v>
       </c>
       <c r="M3" t="n">
-        <v>29041886.19674736</v>
+        <v>17063429.59566716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4707360.680817957</v>
+        <v>13132408.53723919</v>
       </c>
       <c r="C4" t="n">
-        <v>3758837.547351367</v>
+        <v>15108214.56772537</v>
       </c>
       <c r="D4" t="n">
-        <v>5504920.076854469</v>
+        <v>14916746.66907482</v>
       </c>
       <c r="E4" t="n">
-        <v>5800643.751419453</v>
+        <v>13865285.7720753</v>
       </c>
       <c r="F4" t="n">
-        <v>5323896.946583293</v>
+        <v>13275869.37313334</v>
       </c>
       <c r="G4" t="n">
-        <v>5148995.627844435</v>
+        <v>12480903.76306121</v>
       </c>
       <c r="H4" t="n">
-        <v>4658035.035357885</v>
+        <v>12164054.23303154</v>
       </c>
       <c r="I4" t="n">
-        <v>4344009.556189056</v>
+        <v>11305644.58599178</v>
       </c>
       <c r="J4" t="n">
-        <v>3288874.571994228</v>
+        <v>12127348.42682556</v>
       </c>
       <c r="K4" t="n">
-        <v>4142489.333182924</v>
+        <v>12050490.22767737</v>
       </c>
       <c r="L4" t="n">
-        <v>3667862.967166734</v>
+        <v>12606418.6594006</v>
       </c>
       <c r="M4" t="n">
-        <v>3575384.223627783</v>
+        <v>13338060.52937694</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4873367.918415118</v>
+        <v>19113343.91167076</v>
       </c>
       <c r="C5" t="n">
-        <v>8280277.399771012</v>
+        <v>20864857.58026636</v>
       </c>
       <c r="D5" t="n">
-        <v>12583326.33224933</v>
+        <v>21261506.89090534</v>
       </c>
       <c r="E5" t="n">
-        <v>17781852.33751135</v>
+        <v>23907036.00854145</v>
       </c>
       <c r="F5" t="n">
-        <v>23875916.23277263</v>
+        <v>43565971.64236673</v>
       </c>
       <c r="G5" t="n">
-        <v>30864494.08354167</v>
+        <v>13930201.89829156</v>
       </c>
       <c r="H5" t="n">
-        <v>38748050.35721006</v>
+        <v>26055846.34655999</v>
       </c>
       <c r="I5" t="n">
-        <v>47525062.3578568</v>
+        <v>24095352.44992011</v>
       </c>
       <c r="J5" t="n">
-        <v>57196619.34336306</v>
+        <v>28260277.36844879</v>
       </c>
       <c r="K5" t="n">
-        <v>67664621.13619304</v>
+        <v>31360253.37289103</v>
       </c>
       <c r="L5" t="n">
-        <v>78315004.53694302</v>
+        <v>31694728.14884618</v>
       </c>
       <c r="M5" t="n">
-        <v>88726884.80926943</v>
+        <v>29408137.50961408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5969337.694919987</v>
+        <v>3369261.647565291</v>
       </c>
       <c r="C6" t="n">
-        <v>6675112.174580711</v>
+        <v>6326706.085157995</v>
       </c>
       <c r="D6" t="n">
-        <v>7495954.290865256</v>
+        <v>2318446.983303757</v>
       </c>
       <c r="E6" t="n">
-        <v>7698141.562017305</v>
+        <v>6567727.437116183</v>
       </c>
       <c r="F6" t="n">
-        <v>10593930.01184096</v>
+        <v>4061423.913766257</v>
       </c>
       <c r="G6" t="n">
-        <v>33542289.87574734</v>
+        <v>3082287.170189006</v>
       </c>
       <c r="H6" t="n">
-        <v>5294516.958447025</v>
+        <v>8825120.202259116</v>
       </c>
       <c r="I6" t="n">
-        <v>10519054.90583345</v>
+        <v>10395048.95067591</v>
       </c>
       <c r="J6" t="n">
-        <v>8129881.987639609</v>
+        <v>5872740.885478545</v>
       </c>
       <c r="K6" t="n">
-        <v>8846113.970754357</v>
+        <v>8633611.970197197</v>
       </c>
       <c r="L6" t="n">
-        <v>16282354.79129536</v>
+        <v>3361525.716764906</v>
       </c>
       <c r="M6" t="n">
-        <v>11431054.82401393</v>
+        <v>7796632.823526866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1932468.493906738</v>
+        <v>9335140.75371976</v>
       </c>
       <c r="C7" t="n">
-        <v>2319879.884516663</v>
+        <v>7894959.592404284</v>
       </c>
       <c r="D7" t="n">
-        <v>2623964.907944969</v>
+        <v>10055986.34672075</v>
       </c>
       <c r="E7" t="n">
-        <v>2025595.002366586</v>
+        <v>8019027.690813599</v>
       </c>
       <c r="F7" t="n">
-        <v>2524824.01299207</v>
+        <v>8863326.11475575</v>
       </c>
       <c r="G7" t="n">
-        <v>4183418.929943021</v>
+        <v>8230880.902738542</v>
       </c>
       <c r="H7" t="n">
-        <v>1122816.7880981</v>
+        <v>9903221.063617796</v>
       </c>
       <c r="I7" t="n">
-        <v>2576718.543468783</v>
+        <v>11160215.1044939</v>
       </c>
       <c r="J7" t="n">
-        <v>2590569.854234335</v>
+        <v>10219019.33988817</v>
       </c>
       <c r="K7" t="n">
-        <v>3106745.43681367</v>
+        <v>9750131.317527095</v>
       </c>
       <c r="L7" t="n">
-        <v>2187318.337373026</v>
+        <v>9240547.191676367</v>
       </c>
       <c r="M7" t="n">
-        <v>4058295.527058295</v>
+        <v>10306458.81872303</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1862969.771125056</v>
+        <v>15748927.14494919</v>
       </c>
       <c r="C8" t="n">
-        <v>1582035.838935938</v>
+        <v>17402874.94366144</v>
       </c>
       <c r="D8" t="n">
-        <v>1459391.896129655</v>
+        <v>17342327.0724552</v>
       </c>
       <c r="E8" t="n">
-        <v>1650280.840046495</v>
+        <v>17341478.07358502</v>
       </c>
       <c r="F8" t="n">
-        <v>2019543.031238656</v>
+        <v>24294479.98180583</v>
       </c>
       <c r="G8" t="n">
-        <v>1793386.470757568</v>
+        <v>13156429.5957288</v>
       </c>
       <c r="H8" t="n">
-        <v>1074880.056156663</v>
+        <v>21218854.45936532</v>
       </c>
       <c r="I8" t="n">
-        <v>1476259.174858895</v>
+        <v>20813350.43922774</v>
       </c>
       <c r="J8" t="n">
-        <v>1343372.664668868</v>
+        <v>22517199.4767014</v>
       </c>
       <c r="K8" t="n">
-        <v>1425558.071709439</v>
+        <v>22455232.34130654</v>
       </c>
       <c r="L8" t="n">
-        <v>1461185.613488317</v>
+        <v>21782118.85154576</v>
       </c>
       <c r="M8" t="n">
-        <v>1728333.486191102</v>
+        <v>21226673.99574458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3992919.898731424</v>
+        <v>30892552.98965881</v>
       </c>
       <c r="C9" t="n">
-        <v>2454443.318566693</v>
+        <v>27420100.29330132</v>
       </c>
       <c r="D9" t="n">
-        <v>3874908.620538402</v>
+        <v>28413184.00164416</v>
       </c>
       <c r="E9" t="n">
-        <v>2377396.718456174</v>
+        <v>28297059.11076378</v>
       </c>
       <c r="F9" t="n">
-        <v>3824353.723964622</v>
+        <v>38055499.51757763</v>
       </c>
       <c r="G9" t="n">
-        <v>2344478.211056788</v>
+        <v>26105601.92982345</v>
       </c>
       <c r="H9" t="n">
-        <v>3802666.232903685</v>
+        <v>25171356.65995455</v>
       </c>
       <c r="I9" t="n">
-        <v>3279645.535516438</v>
+        <v>30529997.7743848</v>
       </c>
       <c r="J9" t="n">
-        <v>5963531.517209875</v>
+        <v>33411878.85442306</v>
       </c>
       <c r="K9" t="n">
-        <v>5033891.27409884</v>
+        <v>34193425.68224771</v>
       </c>
       <c r="L9" t="n">
-        <v>8057862.145978088</v>
+        <v>34716474.84154348</v>
       </c>
       <c r="M9" t="n">
-        <v>4956613.417184392</v>
+        <v>34931538.48281158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3575067.02017101</v>
+        <v>27418292.3731257</v>
       </c>
       <c r="C10" t="n">
-        <v>4796672.260094404</v>
+        <v>32831421.35633361</v>
       </c>
       <c r="D10" t="n">
-        <v>4959356.160332646</v>
+        <v>37770993.71250261</v>
       </c>
       <c r="E10" t="n">
-        <v>3847916.93052306</v>
+        <v>42833230.17880818</v>
       </c>
       <c r="F10" t="n">
-        <v>4619142.391100009</v>
+        <v>47847999.79092241</v>
       </c>
       <c r="G10" t="n">
-        <v>7835687.973466384</v>
+        <v>53347309.07885917</v>
       </c>
       <c r="H10" t="n">
-        <v>2688066.159788568</v>
+        <v>59024879.92981178</v>
       </c>
       <c r="I10" t="n">
-        <v>4666576.521047128</v>
+        <v>64931690.65049657</v>
       </c>
       <c r="J10" t="n">
-        <v>5430671.707426707</v>
+        <v>69997660.16025013</v>
       </c>
       <c r="K10" t="n">
-        <v>6597983.732208013</v>
+        <v>73900063.45432527</v>
       </c>
       <c r="L10" t="n">
-        <v>6385426.542326937</v>
+        <v>79558551.04805976</v>
       </c>
       <c r="M10" t="n">
-        <v>5523755.828316359</v>
+        <v>84612613.0933108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5663928.978464695</v>
+        <v>14801721.63915884</v>
       </c>
       <c r="C11" t="n">
-        <v>3937291.40674059</v>
+        <v>14515678.30582723</v>
       </c>
       <c r="D11" t="n">
-        <v>7468894.383512329</v>
+        <v>14228752.37662641</v>
       </c>
       <c r="E11" t="n">
-        <v>4281459.024700072</v>
+        <v>14400232.23920173</v>
       </c>
       <c r="F11" t="n">
-        <v>7576137.73803093</v>
+        <v>15306070.11706621</v>
       </c>
       <c r="G11" t="n">
-        <v>4977108.943107517</v>
+        <v>14556912.11464339</v>
       </c>
       <c r="H11" t="n">
-        <v>4665050.542401209</v>
+        <v>14335434.20988531</v>
       </c>
       <c r="I11" t="n">
-        <v>8721491.451165346</v>
+        <v>14387539.72986495</v>
       </c>
       <c r="J11" t="n">
-        <v>8951195.170822442</v>
+        <v>14622561.03354429</v>
       </c>
       <c r="K11" t="n">
-        <v>7071961.80754539</v>
+        <v>15344319.70583694</v>
       </c>
       <c r="L11" t="n">
-        <v>11446080.56039032</v>
+        <v>15455874.24727808</v>
       </c>
       <c r="M11" t="n">
-        <v>6132160.189379562</v>
+        <v>17498356.46461601</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>214495.8594732108</v>
+        <v>41316218.53257983</v>
       </c>
       <c r="C12" t="n">
-        <v>178031.239109345</v>
+        <v>45204524.65658565</v>
       </c>
       <c r="D12" t="n">
-        <v>27704.38460575638</v>
+        <v>45805378.61182228</v>
       </c>
       <c r="E12" t="n">
-        <v>-308625.6248973077</v>
+        <v>48146773.96966687</v>
       </c>
       <c r="F12" t="n">
-        <v>-11895.67031891303</v>
+        <v>38576750.97468399</v>
       </c>
       <c r="G12" t="n">
-        <v>128238.1449136227</v>
+        <v>39325109.56976019</v>
       </c>
       <c r="H12" t="n">
-        <v>-362698.4798328722</v>
+        <v>42415548.20395533</v>
       </c>
       <c r="I12" t="n">
-        <v>501172.3504749561</v>
+        <v>37685307.54347197</v>
       </c>
       <c r="J12" t="n">
-        <v>1274946.079258214</v>
+        <v>42199769.70101865</v>
       </c>
       <c r="K12" t="n">
-        <v>-259878.8099249466</v>
+        <v>39453088.59239856</v>
       </c>
       <c r="L12" t="n">
-        <v>-725008.0896693787</v>
+        <v>43916286.24659353</v>
       </c>
       <c r="M12" t="n">
-        <v>-1370951.429386613</v>
+        <v>48050751.69794622</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2904307.941551258</v>
+        <v>49196358.24323168</v>
       </c>
       <c r="C13" t="n">
-        <v>1991636.404944991</v>
+        <v>47542312.35862339</v>
       </c>
       <c r="D13" t="n">
-        <v>2595324.350118913</v>
+        <v>53489276.16335827</v>
       </c>
       <c r="E13" t="n">
-        <v>2942455.113148543</v>
+        <v>47635052.55092758</v>
       </c>
       <c r="F13" t="n">
-        <v>2819047.5469139</v>
+        <v>42247120.39370832</v>
       </c>
       <c r="G13" t="n">
-        <v>2873738.740728275</v>
+        <v>42052707.24105297</v>
       </c>
       <c r="H13" t="n">
-        <v>3105789.886856824</v>
+        <v>44584694.38585936</v>
       </c>
       <c r="I13" t="n">
-        <v>2916747.93635988</v>
+        <v>39710640.25623948</v>
       </c>
       <c r="J13" t="n">
-        <v>4421309.467057476</v>
+        <v>44963572.34087931</v>
       </c>
       <c r="K13" t="n">
-        <v>3759785.007966367</v>
+        <v>38523322.0698339</v>
       </c>
       <c r="L13" t="n">
-        <v>5531348.962777095</v>
+        <v>43727674.42005031</v>
       </c>
       <c r="M13" t="n">
-        <v>4304343.716220663</v>
+        <v>47596148.5561612</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-155311.5789611508</v>
+        <v>2651996.265170257</v>
       </c>
       <c r="C14" t="n">
-        <v>-147201.0430592299</v>
+        <v>2155244.256871384</v>
       </c>
       <c r="D14" t="n">
-        <v>-280476.742117697</v>
+        <v>1020037.947181682</v>
       </c>
       <c r="E14" t="n">
-        <v>103753.0274683865</v>
+        <v>321394.275761438</v>
       </c>
       <c r="F14" t="n">
-        <v>-359713.0960144242</v>
+        <v>720906.3011176522</v>
       </c>
       <c r="G14" t="n">
-        <v>-248307.1593335542</v>
+        <v>1840235.879517727</v>
       </c>
       <c r="H14" t="n">
-        <v>-391165.6738980158</v>
+        <v>2855416.421015689</v>
       </c>
       <c r="I14" t="n">
-        <v>1265583.891457705</v>
+        <v>2700405.554049444</v>
       </c>
       <c r="J14" t="n">
-        <v>2818268.780741801</v>
+        <v>1578624.77357595</v>
       </c>
       <c r="K14" t="n">
-        <v>1376110.452085291</v>
+        <v>634681.8910814219</v>
       </c>
       <c r="L14" t="n">
-        <v>509480.4105054247</v>
+        <v>1467426.144835041</v>
       </c>
       <c r="M14" t="n">
-        <v>689378.8541158898</v>
+        <v>3667187.346237961</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1674016.232055532</v>
+        <v>3547183.013573301</v>
       </c>
       <c r="C15" t="n">
-        <v>860749.7240407667</v>
+        <v>3262731.663098342</v>
       </c>
       <c r="D15" t="n">
-        <v>897603.9068845892</v>
+        <v>3208726.806523206</v>
       </c>
       <c r="E15" t="n">
-        <v>1089554.453253131</v>
+        <v>3831678.832079042</v>
       </c>
       <c r="F15" t="n">
-        <v>989582.6733206785</v>
+        <v>3474274.549824638</v>
       </c>
       <c r="G15" t="n">
-        <v>2692227.671311849</v>
+        <v>3691194.950168491</v>
       </c>
       <c r="H15" t="n">
-        <v>2261881.686290627</v>
+        <v>4195225.60530832</v>
       </c>
       <c r="I15" t="n">
-        <v>1669217.481492866</v>
+        <v>4343217.428403864</v>
       </c>
       <c r="J15" t="n">
-        <v>1773820.957683395</v>
+        <v>4841097.581802373</v>
       </c>
       <c r="K15" t="n">
-        <v>2190560.965454626</v>
+        <v>3525324.500056586</v>
       </c>
       <c r="L15" t="n">
-        <v>1790110.104855045</v>
+        <v>3593819.55357575</v>
       </c>
       <c r="M15" t="n">
-        <v>2513856.130523649</v>
+        <v>3404480.265549471</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1507273.810758535</v>
+        <v>8014052.511918154</v>
       </c>
       <c r="C16" t="n">
-        <v>1277578.25314238</v>
+        <v>15112408.53949465</v>
       </c>
       <c r="D16" t="n">
-        <v>1476931.116138117</v>
+        <v>13222909.09974886</v>
       </c>
       <c r="E16" t="n">
-        <v>1542751.885829478</v>
+        <v>17150902.23065968</v>
       </c>
       <c r="F16" t="n">
-        <v>1568473.252638361</v>
+        <v>15417081.92949423</v>
       </c>
       <c r="G16" t="n">
-        <v>2599350.6250954</v>
+        <v>16719605.36211456</v>
       </c>
       <c r="H16" t="n">
-        <v>1928127.576240416</v>
+        <v>11803642.27758745</v>
       </c>
       <c r="I16" t="n">
-        <v>2678196.678840938</v>
+        <v>13078318.13604133</v>
       </c>
       <c r="J16" t="n">
-        <v>2679695.05557701</v>
+        <v>15580748.89233695</v>
       </c>
       <c r="K16" t="n">
-        <v>2848356.229077918</v>
+        <v>14089684.18598769</v>
       </c>
       <c r="L16" t="n">
-        <v>3383387.820183152</v>
+        <v>15028429.3378438</v>
       </c>
       <c r="M16" t="n">
-        <v>3270331.283900073</v>
+        <v>16435155.86415706</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4840913.589084207</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5450938.429432428</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5761023.043371578</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6078346.247030017</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5837070.455224939</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5056001.242833061</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6458704.4152899</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5380139.924415983</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5589208.76047599</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5648646.076704448</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>6054365.395345794</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>6423694.327844936</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1220924.850562955</v>
+        <v>3639683.43066937</v>
       </c>
       <c r="C18" t="n">
-        <v>545049.6966212774</v>
+        <v>3568341.111325055</v>
       </c>
       <c r="D18" t="n">
-        <v>1504599.904536049</v>
+        <v>3658226.456722762</v>
       </c>
       <c r="E18" t="n">
-        <v>1142451.218880391</v>
+        <v>3951057.635281794</v>
       </c>
       <c r="F18" t="n">
-        <v>1201650.603862141</v>
+        <v>3892127.256003013</v>
       </c>
       <c r="G18" t="n">
-        <v>4786048.478171051</v>
+        <v>3766802.794332233</v>
       </c>
       <c r="H18" t="n">
-        <v>368672.9791208234</v>
+        <v>4679240.821332924</v>
       </c>
       <c r="I18" t="n">
-        <v>1401394.100814263</v>
+        <v>3713746.770738205</v>
       </c>
       <c r="J18" t="n">
-        <v>1417671.298221224</v>
+        <v>3689549.346694459</v>
       </c>
       <c r="K18" t="n">
-        <v>1328633.840010099</v>
+        <v>4770556.292287996</v>
       </c>
       <c r="L18" t="n">
-        <v>900328.7065968869</v>
+        <v>4420032.912574148</v>
       </c>
       <c r="M18" t="n">
-        <v>1155190.766519294</v>
+        <v>3448001.818115087</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23972.6502964962</v>
+        <v>6581981.472513862</v>
       </c>
       <c r="C19" t="n">
-        <v>-57465.54632484599</v>
+        <v>4966680.019127671</v>
       </c>
       <c r="D19" t="n">
-        <v>488798.9290245547</v>
+        <v>6224598.13797046</v>
       </c>
       <c r="E19" t="n">
-        <v>86081.12084666023</v>
+        <v>5413202.521522272</v>
       </c>
       <c r="F19" t="n">
-        <v>-66891.30553445969</v>
+        <v>6019933.829499008</v>
       </c>
       <c r="G19" t="n">
-        <v>51459.03685544056</v>
+        <v>3619861.208060102</v>
       </c>
       <c r="H19" t="n">
-        <v>51909.84090157662</v>
+        <v>5045967.001744607</v>
       </c>
       <c r="I19" t="n">
-        <v>-25458.33747747277</v>
+        <v>6443351.5200212</v>
       </c>
       <c r="J19" t="n">
-        <v>288306.3617929702</v>
+        <v>4209978.60669054</v>
       </c>
       <c r="K19" t="n">
-        <v>2533.48590787733</v>
+        <v>3699066.874854437</v>
       </c>
       <c r="L19" t="n">
-        <v>98006.37542211344</v>
+        <v>4362776.937302449</v>
       </c>
       <c r="M19" t="n">
-        <v>-47905.39593232369</v>
+        <v>5892073.985806486</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2292603.967022671</v>
+        <v>2161243.797672663</v>
       </c>
       <c r="C20" t="n">
-        <v>2588482.473432789</v>
+        <v>2914539.912817102</v>
       </c>
       <c r="D20" t="n">
-        <v>3088370.134480314</v>
+        <v>3505732.739040089</v>
       </c>
       <c r="E20" t="n">
-        <v>2531873.553510997</v>
+        <v>3572474.19829348</v>
       </c>
       <c r="F20" t="n">
-        <v>2815876.506925752</v>
+        <v>2777237.388480021</v>
       </c>
       <c r="G20" t="n">
-        <v>3716190.712050627</v>
+        <v>2410612.664555639</v>
       </c>
       <c r="H20" t="n">
-        <v>1656398.753081626</v>
+        <v>3722940.888142906</v>
       </c>
       <c r="I20" t="n">
-        <v>2712113.239232248</v>
+        <v>4422955.752685685</v>
       </c>
       <c r="J20" t="n">
-        <v>2644293.094813091</v>
+        <v>1875358.744695051</v>
       </c>
       <c r="K20" t="n">
-        <v>2870855.899820286</v>
+        <v>2423079.207520468</v>
       </c>
       <c r="L20" t="n">
-        <v>2716359.375354378</v>
+        <v>2893365.668580241</v>
       </c>
       <c r="M20" t="n">
-        <v>2835640.072214438</v>
+        <v>2058545.875745837</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2539807.682703508</v>
+        <v>4603245.157198794</v>
       </c>
       <c r="C21" t="n">
-        <v>2045051.15540986</v>
+        <v>4248589.759988242</v>
       </c>
       <c r="D21" t="n">
-        <v>1103118.153876247</v>
+        <v>5721622.215901008</v>
       </c>
       <c r="E21" t="n">
-        <v>2756225.863673713</v>
+        <v>5499213.692518272</v>
       </c>
       <c r="F21" t="n">
-        <v>1569844.113309573</v>
+        <v>5276802.494438128</v>
       </c>
       <c r="G21" t="n">
-        <v>1800850.493394121</v>
+        <v>4578385.826095813</v>
       </c>
       <c r="H21" t="n">
-        <v>1777062.437113064</v>
+        <v>4103524.858033098</v>
       </c>
       <c r="I21" t="n">
-        <v>2759540.093591219</v>
+        <v>4310540.387465801</v>
       </c>
       <c r="J21" t="n">
-        <v>2037095.374030751</v>
+        <v>4626996.892475746</v>
       </c>
       <c r="K21" t="n">
-        <v>2983821.197346844</v>
+        <v>4526019.090030643</v>
       </c>
       <c r="L21" t="n">
-        <v>3464963.132990425</v>
+        <v>5031126.367774117</v>
       </c>
       <c r="M21" t="n">
-        <v>2248926.007114599</v>
+        <v>4539245.347496646</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>442181.820580943</v>
+        <v>11430266.33996712</v>
       </c>
       <c r="C22" t="n">
-        <v>412261.9144391345</v>
+        <v>13132000.51511563</v>
       </c>
       <c r="D22" t="n">
-        <v>412783.1356482906</v>
+        <v>14128311.43770235</v>
       </c>
       <c r="E22" t="n">
-        <v>661698.06214154</v>
+        <v>13452678.56768116</v>
       </c>
       <c r="F22" t="n">
-        <v>3165034.361139601</v>
+        <v>13487605.7424215</v>
       </c>
       <c r="G22" t="n">
-        <v>4541488.331350558</v>
+        <v>11289968.87140049</v>
       </c>
       <c r="H22" t="n">
-        <v>4247561.68834909</v>
+        <v>11237273.47259274</v>
       </c>
       <c r="I22" t="n">
-        <v>2694189.209385979</v>
+        <v>12583338.02423782</v>
       </c>
       <c r="J22" t="n">
-        <v>4568304.24167542</v>
+        <v>13981053.49187737</v>
       </c>
       <c r="K22" t="n">
-        <v>3673139.759216931</v>
+        <v>12634452.8443084</v>
       </c>
       <c r="L22" t="n">
-        <v>2287246.237630603</v>
+        <v>15317790.03750218</v>
       </c>
       <c r="M22" t="n">
-        <v>1915236.873955298</v>
+        <v>13453953.00501187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1282.942273616062</v>
+        <v>19465876.10017245</v>
       </c>
       <c r="C23" t="n">
-        <v>-914.77570257821</v>
+        <v>15892404.18229051</v>
       </c>
       <c r="D23" t="n">
-        <v>-681.3866392626371</v>
+        <v>10608540.20077207</v>
       </c>
       <c r="E23" t="n">
-        <v>2220.886661044974</v>
+        <v>10495058.25780517</v>
       </c>
       <c r="F23" t="n">
-        <v>21393.02765738442</v>
+        <v>11182998.98767071</v>
       </c>
       <c r="G23" t="n">
-        <v>871976.8615843435</v>
+        <v>7483771.790144259</v>
       </c>
       <c r="H23" t="n">
-        <v>-913.1280280960491</v>
+        <v>10322997.42150372</v>
       </c>
       <c r="I23" t="n">
-        <v>472228.1290845302</v>
+        <v>9412448.725417661</v>
       </c>
       <c r="J23" t="n">
-        <v>318306.2467866178</v>
+        <v>10085531.64306696</v>
       </c>
       <c r="K23" t="n">
-        <v>58064.01349688132</v>
+        <v>8388586.438525237</v>
       </c>
       <c r="L23" t="n">
-        <v>189912.6982262612</v>
+        <v>10851983.64088164</v>
       </c>
       <c r="M23" t="n">
-        <v>-901.829757337051</v>
+        <v>10321557.39040493</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14607883.40738567</v>
+        <v>8630140.834639808</v>
       </c>
       <c r="C24" t="n">
-        <v>13177044.37956194</v>
+        <v>9791300.792379551</v>
       </c>
       <c r="D24" t="n">
-        <v>13947101.31431464</v>
+        <v>9720705.247675531</v>
       </c>
       <c r="E24" t="n">
-        <v>13570694.22637402</v>
+        <v>10701523.01417662</v>
       </c>
       <c r="F24" t="n">
-        <v>13673841.56379768</v>
+        <v>14675775.2182132</v>
       </c>
       <c r="G24" t="n">
-        <v>16602286.32388517</v>
+        <v>8247402.472561628</v>
       </c>
       <c r="H24" t="n">
-        <v>11576212.49768421</v>
+        <v>10546245.60120765</v>
       </c>
       <c r="I24" t="n">
-        <v>14527996.12020382</v>
+        <v>11071477.93981347</v>
       </c>
       <c r="J24" t="n">
-        <v>16019294.10864061</v>
+        <v>11171726.70373767</v>
       </c>
       <c r="K24" t="n">
-        <v>15878977.61369945</v>
+        <v>9166679.782311279</v>
       </c>
       <c r="L24" t="n">
-        <v>15271896.2020943</v>
+        <v>10047029.40465786</v>
       </c>
       <c r="M24" t="n">
-        <v>15849658.10986576</v>
+        <v>11823475.56675538</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2142480.401340434</v>
+        <v>5129452.333915429</v>
       </c>
       <c r="C25" t="n">
-        <v>3092353.702475101</v>
+        <v>7154134.160759407</v>
       </c>
       <c r="D25" t="n">
-        <v>2711348.257522944</v>
+        <v>6782350.664735993</v>
       </c>
       <c r="E25" t="n">
-        <v>3857437.954099141</v>
+        <v>5828856.532196874</v>
       </c>
       <c r="F25" t="n">
-        <v>3351678.402612845</v>
+        <v>7182248.307292987</v>
       </c>
       <c r="G25" t="n">
-        <v>2921456.496937126</v>
+        <v>4922704.814776484</v>
       </c>
       <c r="H25" t="n">
-        <v>1626010.966066936</v>
+        <v>5788401.09411266</v>
       </c>
       <c r="I25" t="n">
-        <v>3084870.890950183</v>
+        <v>7226113.568167945</v>
       </c>
       <c r="J25" t="n">
-        <v>2882562.477631236</v>
+        <v>7188842.960786654</v>
       </c>
       <c r="K25" t="n">
-        <v>2636348.55672386</v>
+        <v>5482682.11126133</v>
       </c>
       <c r="L25" t="n">
-        <v>2547852.648621949</v>
+        <v>6107563.214641223</v>
       </c>
       <c r="M25" t="n">
-        <v>2374681.81360472</v>
+        <v>6904065.753402865</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10984181.20303899</v>
+        <v>11457635.92129211</v>
       </c>
       <c r="C26" t="n">
-        <v>11256428.63374382</v>
+        <v>11945954.49014681</v>
       </c>
       <c r="D26" t="n">
-        <v>9867014.97975957</v>
+        <v>12506706.88637185</v>
       </c>
       <c r="E26" t="n">
-        <v>10222992.46770793</v>
+        <v>11840625.04092967</v>
       </c>
       <c r="F26" t="n">
-        <v>10073080.60505025</v>
+        <v>13202237.2470076</v>
       </c>
       <c r="G26" t="n">
-        <v>11580530.60205362</v>
+        <v>11127743.02839425</v>
       </c>
       <c r="H26" t="n">
-        <v>10017718.14828012</v>
+        <v>14570145.54150107</v>
       </c>
       <c r="I26" t="n">
-        <v>10361693.32779674</v>
+        <v>12845537.58780547</v>
       </c>
       <c r="J26" t="n">
-        <v>13031985.34824855</v>
+        <v>10603407.02117363</v>
       </c>
       <c r="K26" t="n">
-        <v>16394889.97341626</v>
+        <v>11864041.28461163</v>
       </c>
       <c r="L26" t="n">
-        <v>14526393.48247358</v>
+        <v>10897861.17547322</v>
       </c>
       <c r="M26" t="n">
-        <v>14457640.13924216</v>
+        <v>10841360.04736112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15664766.10418844</v>
+        <v>3861087.690193816</v>
       </c>
       <c r="C27" t="n">
-        <v>19886315.47563398</v>
+        <v>4063439.01494981</v>
       </c>
       <c r="D27" t="n">
-        <v>17932636.14414352</v>
+        <v>4089662.033066718</v>
       </c>
       <c r="E27" t="n">
-        <v>17644934.11664921</v>
+        <v>4364299.558883005</v>
       </c>
       <c r="F27" t="n">
-        <v>18326654.46401072</v>
+        <v>5672132.512324352</v>
       </c>
       <c r="G27" t="n">
-        <v>26616348.74307197</v>
+        <v>4140082.246115564</v>
       </c>
       <c r="H27" t="n">
-        <v>11625287.93413858</v>
+        <v>5041808.185073628</v>
       </c>
       <c r="I27" t="n">
-        <v>5563878.767513599</v>
+        <v>5008337.075985971</v>
       </c>
       <c r="J27" t="n">
-        <v>10909844.52840296</v>
+        <v>4137658.221679315</v>
       </c>
       <c r="K27" t="n">
-        <v>11529843.60482815</v>
+        <v>4213371.113345172</v>
       </c>
       <c r="L27" t="n">
-        <v>16444112.31453736</v>
+        <v>4049110.243562524</v>
       </c>
       <c r="M27" t="n">
-        <v>17082006.21624859</v>
+        <v>5206374.122479329</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11424177.64883862</v>
+        <v>12376062.6302589</v>
       </c>
       <c r="C28" t="n">
-        <v>8746695.312406898</v>
+        <v>10027254.80471503</v>
       </c>
       <c r="D28" t="n">
-        <v>7074825.819534089</v>
+        <v>9654348.957436103</v>
       </c>
       <c r="E28" t="n">
-        <v>6802074.658393885</v>
+        <v>11860176.13902928</v>
       </c>
       <c r="F28" t="n">
-        <v>7637937.123785164</v>
+        <v>14639431.10396289</v>
       </c>
       <c r="G28" t="n">
-        <v>8497939.414675299</v>
+        <v>10583658.78165191</v>
       </c>
       <c r="H28" t="n">
-        <v>10052678.15807179</v>
+        <v>15402682.49262018</v>
       </c>
       <c r="I28" t="n">
-        <v>10837524.48894205</v>
+        <v>15246505.24232734</v>
       </c>
       <c r="J28" t="n">
-        <v>11026501.93049845</v>
+        <v>13353661.85484053</v>
       </c>
       <c r="K28" t="n">
-        <v>10081430.01821702</v>
+        <v>12224614.90811899</v>
       </c>
       <c r="L28" t="n">
-        <v>8160081.621264426</v>
+        <v>13887561.08542259</v>
       </c>
       <c r="M28" t="n">
-        <v>8760431.164030954</v>
+        <v>17073643.81853538</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21687995.78349597</v>
+        <v>2447817.56375836</v>
       </c>
       <c r="C29" t="n">
-        <v>22942697.46585586</v>
+        <v>2550992.63413003</v>
       </c>
       <c r="D29" t="n">
-        <v>28749582.16211289</v>
+        <v>2592525.08774507</v>
       </c>
       <c r="E29" t="n">
-        <v>36538206.29416685</v>
+        <v>2853041.323689842</v>
       </c>
       <c r="F29" t="n">
-        <v>37665459.30810174</v>
+        <v>3144805.453510254</v>
       </c>
       <c r="G29" t="n">
-        <v>29439308.79994675</v>
+        <v>2880987.055814579</v>
       </c>
       <c r="H29" t="n">
-        <v>28741862.71006586</v>
+        <v>3148517.394167643</v>
       </c>
       <c r="I29" t="n">
-        <v>34209323.47439248</v>
+        <v>3519742.423106501</v>
       </c>
       <c r="J29" t="n">
-        <v>34230810.64453247</v>
+        <v>3827797.23202993</v>
       </c>
       <c r="K29" t="n">
-        <v>36901788.30295354</v>
+        <v>3826033.94756489</v>
       </c>
       <c r="L29" t="n">
-        <v>35531586.32713677</v>
+        <v>4325073.910592065</v>
       </c>
       <c r="M29" t="n">
-        <v>45136025.36688909</v>
+        <v>4238473.276859751</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51469830.75547075</v>
+        <v>657565.8788417317</v>
       </c>
       <c r="C30" t="n">
-        <v>46679524.7981991</v>
+        <v>815804.7301168912</v>
       </c>
       <c r="D30" t="n">
-        <v>52777007.89336158</v>
+        <v>756143.8083400694</v>
       </c>
       <c r="E30" t="n">
-        <v>52047747.09285722</v>
+        <v>793975.8417166058</v>
       </c>
       <c r="F30" t="n">
-        <v>53402270.40877208</v>
+        <v>1073827.25520883</v>
       </c>
       <c r="G30" t="n">
-        <v>45669422.66264825</v>
+        <v>908455.3781549206</v>
       </c>
       <c r="H30" t="n">
-        <v>45252564.07870851</v>
+        <v>967253.0576510727</v>
       </c>
       <c r="I30" t="n">
-        <v>50085298.69493587</v>
+        <v>836961.9572495439</v>
       </c>
       <c r="J30" t="n">
-        <v>45004753.22399043</v>
+        <v>1265340.401983155</v>
       </c>
       <c r="K30" t="n">
-        <v>48481079.77958051</v>
+        <v>992929.3180871294</v>
       </c>
       <c r="L30" t="n">
-        <v>44450502.13919569</v>
+        <v>875206.3742889999</v>
       </c>
       <c r="M30" t="n">
-        <v>48810254.63451816</v>
+        <v>1194290.410213834</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49520538.13653655</v>
+        <v>540242.4038634659</v>
       </c>
       <c r="C31" t="n">
-        <v>51749833.14415722</v>
+        <v>749807.0487949353</v>
       </c>
       <c r="D31" t="n">
-        <v>50701752.5019129</v>
+        <v>801857.3769511299</v>
       </c>
       <c r="E31" t="n">
-        <v>56657956.0753288</v>
+        <v>859392.2051797586</v>
       </c>
       <c r="F31" t="n">
-        <v>49233027.01854621</v>
+        <v>859101.4694245438</v>
       </c>
       <c r="G31" t="n">
-        <v>46746099.15083662</v>
+        <v>560499.3678071366</v>
       </c>
       <c r="H31" t="n">
-        <v>44288270.2538915</v>
+        <v>721011.1650475655</v>
       </c>
       <c r="I31" t="n">
-        <v>48335228.35284535</v>
+        <v>907028.3901688708</v>
       </c>
       <c r="J31" t="n">
-        <v>45844552.31067479</v>
+        <v>916435.8054328267</v>
       </c>
       <c r="K31" t="n">
-        <v>50964165.42430747</v>
+        <v>724411.9924833589</v>
       </c>
       <c r="L31" t="n">
-        <v>42414453.82076884</v>
+        <v>745531.2293563483</v>
       </c>
       <c r="M31" t="n">
-        <v>48483279.62228838</v>
+        <v>641561.3303377845</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953968.2045863151</v>
+        <v>1718865.736750158</v>
       </c>
       <c r="C32" t="n">
-        <v>489138.3387700477</v>
+        <v>2202038.803193125</v>
       </c>
       <c r="D32" t="n">
-        <v>577430.2299503939</v>
+        <v>2158862.230811545</v>
       </c>
       <c r="E32" t="n">
-        <v>881115.1944080798</v>
+        <v>1911897.639955293</v>
       </c>
       <c r="F32" t="n">
-        <v>735604.8399184836</v>
+        <v>2249121.66390051</v>
       </c>
       <c r="G32" t="n">
-        <v>561270.5747029115</v>
+        <v>1783459.691249931</v>
       </c>
       <c r="H32" t="n">
-        <v>711690.7892552677</v>
+        <v>1952751.592596711</v>
       </c>
       <c r="I32" t="n">
-        <v>1029542.595734887</v>
+        <v>2235466.461008469</v>
       </c>
       <c r="J32" t="n">
-        <v>1044923.562441905</v>
+        <v>2309782.7894554</v>
       </c>
       <c r="K32" t="n">
-        <v>994535.970460698</v>
+        <v>2211951.355446503</v>
       </c>
       <c r="L32" t="n">
-        <v>1000352.325341569</v>
+        <v>2221603.289817081</v>
       </c>
       <c r="M32" t="n">
-        <v>1627019.261950641</v>
+        <v>2433325.966683484</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3921593.92881167</v>
+        <v>2622228.178171653</v>
       </c>
       <c r="C33" t="n">
-        <v>4152343.400526508</v>
+        <v>2311548.496224446</v>
       </c>
       <c r="D33" t="n">
-        <v>3804060.583175164</v>
+        <v>2775869.209129445</v>
       </c>
       <c r="E33" t="n">
-        <v>4084283.506110432</v>
+        <v>2525757.618620241</v>
       </c>
       <c r="F33" t="n">
-        <v>4500727.319304928</v>
+        <v>2503676.765170318</v>
       </c>
       <c r="G33" t="n">
-        <v>4120131.860185575</v>
+        <v>2070705.469876545</v>
       </c>
       <c r="H33" t="n">
-        <v>4394572.23918063</v>
+        <v>2635733.507421818</v>
       </c>
       <c r="I33" t="n">
-        <v>4830298.516213328</v>
+        <v>2621269.528334795</v>
       </c>
       <c r="J33" t="n">
-        <v>5043935.370738292</v>
+        <v>2421144.352489027</v>
       </c>
       <c r="K33" t="n">
-        <v>5629276.774488162</v>
+        <v>2674714.035153853</v>
       </c>
       <c r="L33" t="n">
-        <v>4428035.433189196</v>
+        <v>3053114.336532663</v>
       </c>
       <c r="M33" t="n">
-        <v>4483455.329565647</v>
+        <v>3373721.382970799</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9241901.590856526</v>
+        <v>3233052.201287237</v>
       </c>
       <c r="C34" t="n">
-        <v>7070483.638714696</v>
+        <v>2194825.344977577</v>
       </c>
       <c r="D34" t="n">
-        <v>13568550.38900711</v>
+        <v>3334149.993533276</v>
       </c>
       <c r="E34" t="n">
-        <v>12251651.21719465</v>
+        <v>2404853.305968157</v>
       </c>
       <c r="F34" t="n">
-        <v>16058958.22393929</v>
+        <v>2927135.152356793</v>
       </c>
       <c r="G34" t="n">
-        <v>14520122.10384423</v>
+        <v>2392522.878892225</v>
       </c>
       <c r="H34" t="n">
-        <v>15804513.41494033</v>
+        <v>2127605.039464341</v>
       </c>
       <c r="I34" t="n">
-        <v>10782441.0323106</v>
+        <v>2570485.560406511</v>
       </c>
       <c r="J34" t="n">
-        <v>12189703.23938707</v>
+        <v>2602541.9546318</v>
       </c>
       <c r="K34" t="n">
-        <v>14575724.47400651</v>
+        <v>2760517.685291871</v>
       </c>
       <c r="L34" t="n">
-        <v>13035944.83141485</v>
+        <v>2921454.237532033</v>
       </c>
       <c r="M34" t="n">
-        <v>14073051.85213701</v>
+        <v>2718342.682695133</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4709509.559152333</v>
+        <v>1798100.695642602</v>
       </c>
       <c r="C35" t="n">
-        <v>4723659.729002512</v>
+        <v>2107837.501719512</v>
       </c>
       <c r="D35" t="n">
-        <v>5352048.331543781</v>
+        <v>2514847.329290567</v>
       </c>
       <c r="E35" t="n">
-        <v>5602112.466182522</v>
+        <v>2330533.283558836</v>
       </c>
       <c r="F35" t="n">
-        <v>5953580.198527305</v>
+        <v>2263457.31187438</v>
       </c>
       <c r="G35" t="n">
-        <v>5718655.647810007</v>
+        <v>2085429.571291817</v>
       </c>
       <c r="H35" t="n">
-        <v>4933655.629926468</v>
+        <v>2612263.278254356</v>
       </c>
       <c r="I35" t="n">
-        <v>6345116.34850334</v>
+        <v>3125387.88356816</v>
       </c>
       <c r="J35" t="n">
-        <v>5245857.894218148</v>
+        <v>2655033.151851637</v>
       </c>
       <c r="K35" t="n">
-        <v>5440273.628314137</v>
+        <v>2555391.361200333</v>
       </c>
       <c r="L35" t="n">
-        <v>5516347.861503926</v>
+        <v>2599984.860432692</v>
       </c>
       <c r="M35" t="n">
-        <v>5936234.98073399</v>
+        <v>3341178.813271142</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2038901.852740529</v>
+        <v>1189521.840814712</v>
       </c>
       <c r="C36" t="n">
-        <v>2969739.662217531</v>
+        <v>1050583.525522802</v>
       </c>
       <c r="D36" t="n">
-        <v>3321035.872622437</v>
+        <v>1626854.123296748</v>
       </c>
       <c r="E36" t="n">
-        <v>2778820.751229084</v>
+        <v>960813.265895486</v>
       </c>
       <c r="F36" t="n">
-        <v>3063431.100601382</v>
+        <v>1025679.452898169</v>
       </c>
       <c r="G36" t="n">
-        <v>3156615.681581003</v>
+        <v>1244138.847308466</v>
       </c>
       <c r="H36" t="n">
-        <v>2931508.361785376</v>
+        <v>1698599.294349517</v>
       </c>
       <c r="I36" t="n">
-        <v>3750548.429114247</v>
+        <v>1474750.467024069</v>
       </c>
       <c r="J36" t="n">
-        <v>2898261.909794072</v>
+        <v>1626588.972773752</v>
       </c>
       <c r="K36" t="n">
-        <v>2983835.88055266</v>
+        <v>1469176.486929723</v>
       </c>
       <c r="L36" t="n">
-        <v>4026739.726757111</v>
+        <v>1787547.716087529</v>
       </c>
       <c r="M36" t="n">
-        <v>3483195.026874906</v>
+        <v>1603965.817917614</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6648556.355523447</v>
+        <v>4971856.346002355</v>
       </c>
       <c r="C37" t="n">
-        <v>7062701.776706458</v>
+        <v>4298432.397332715</v>
       </c>
       <c r="D37" t="n">
-        <v>4893359.139995994</v>
+        <v>5266132.480835769</v>
       </c>
       <c r="E37" t="n">
-        <v>6946004.114629497</v>
+        <v>4430680.525102989</v>
       </c>
       <c r="F37" t="n">
-        <v>5302118.597227835</v>
+        <v>3996665.889776343</v>
       </c>
       <c r="G37" t="n">
-        <v>6471045.42421272</v>
+        <v>3578140.882004204</v>
       </c>
       <c r="H37" t="n">
-        <v>3525059.413585785</v>
+        <v>3757535.13148936</v>
       </c>
       <c r="I37" t="n">
-        <v>5131227.823805371</v>
+        <v>5057000.13156525</v>
       </c>
       <c r="J37" t="n">
-        <v>6821130.876797235</v>
+        <v>4365377.511842816</v>
       </c>
       <c r="K37" t="n">
-        <v>4837135.513139967</v>
+        <v>3916226.037023208</v>
       </c>
       <c r="L37" t="n">
-        <v>4540226.598403888</v>
+        <v>4147143.386289069</v>
       </c>
       <c r="M37" t="n">
-        <v>4562655.738444324</v>
+        <v>4837756.468488973</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2383160.91544185</v>
+        <v>3803932.869028047</v>
       </c>
       <c r="C38" t="n">
-        <v>2230441.460986898</v>
+        <v>4624719.522753392</v>
       </c>
       <c r="D38" t="n">
-        <v>2967107.952543348</v>
+        <v>4169430.751926697</v>
       </c>
       <c r="E38" t="n">
-        <v>3667924.876472918</v>
+        <v>3611093.461476769</v>
       </c>
       <c r="F38" t="n">
-        <v>3728857.874431805</v>
+        <v>4242183.292999418</v>
       </c>
       <c r="G38" t="n">
-        <v>2956107.653015451</v>
+        <v>3146641.576709091</v>
       </c>
       <c r="H38" t="n">
-        <v>2483844.611730876</v>
+        <v>4074458.005628755</v>
       </c>
       <c r="I38" t="n">
-        <v>3815629.602665187</v>
+        <v>3812464.645648372</v>
       </c>
       <c r="J38" t="n">
-        <v>4653576.14469964</v>
+        <v>4113503.983524299</v>
       </c>
       <c r="K38" t="n">
-        <v>1948199.494314252</v>
+        <v>4557074.7923625</v>
       </c>
       <c r="L38" t="n">
-        <v>2502458.876198951</v>
+        <v>4184540.876336373</v>
       </c>
       <c r="M38" t="n">
-        <v>2863589.963600148</v>
+        <v>4406504.333763557</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4114983.060623954</v>
+        <v>5266817.662637577</v>
       </c>
       <c r="C39" t="n">
-        <v>4477353.920120962</v>
+        <v>5549261.244427224</v>
       </c>
       <c r="D39" t="n">
-        <v>4160789.460966638</v>
+        <v>6244014.244245103</v>
       </c>
       <c r="E39" t="n">
-        <v>5625932.936993731</v>
+        <v>5125360.755644364</v>
       </c>
       <c r="F39" t="n">
-        <v>5414954.748791854</v>
+        <v>5214783.906698815</v>
       </c>
       <c r="G39" t="n">
-        <v>5187097.100070809</v>
+        <v>4827119.741803043</v>
       </c>
       <c r="H39" t="n">
-        <v>4495799.054921269</v>
+        <v>5238703.007488197</v>
       </c>
       <c r="I39" t="n">
-        <v>3981119.430975229</v>
+        <v>5877895.620845481</v>
       </c>
       <c r="J39" t="n">
-        <v>4145747.086574343</v>
+        <v>6052840.266120645</v>
       </c>
       <c r="K39" t="n">
-        <v>4503763.976003328</v>
+        <v>5981670.575498172</v>
       </c>
       <c r="L39" t="n">
-        <v>4335692.080760939</v>
+        <v>5784858.239698448</v>
       </c>
       <c r="M39" t="n">
-        <v>4901091.610383289</v>
+        <v>6213635.917106263</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12694361.36528224</v>
+        <v>5868908.068975781</v>
       </c>
       <c r="C40" t="n">
-        <v>11890300.42711719</v>
+        <v>5755578.63666591</v>
       </c>
       <c r="D40" t="n">
-        <v>13454301.28761001</v>
+        <v>6054993.726278713</v>
       </c>
       <c r="E40" t="n">
-        <v>14391497.62823008</v>
+        <v>5570254.49735951</v>
       </c>
       <c r="F40" t="n">
-        <v>13528170.70651471</v>
+        <v>5959790.48089849</v>
       </c>
       <c r="G40" t="n">
-        <v>13594893.82293183</v>
+        <v>5196704.063484937</v>
       </c>
       <c r="H40" t="n">
-        <v>11444730.79594391</v>
+        <v>5453411.643309626</v>
       </c>
       <c r="I40" t="n">
-        <v>11400208.57656364</v>
+        <v>5953944.934142107</v>
       </c>
       <c r="J40" t="n">
-        <v>12800134.03792732</v>
+        <v>6137829.259898148</v>
       </c>
       <c r="K40" t="n">
-        <v>14082468.93903828</v>
+        <v>5940288.008561644</v>
       </c>
       <c r="L40" t="n">
-        <v>12798867.50416337</v>
+        <v>6236117.474090105</v>
       </c>
       <c r="M40" t="n">
-        <v>15441503.6338408</v>
+        <v>6076773.206784427</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9453505.69507874</v>
+        <v>3111597.615224993</v>
       </c>
       <c r="C41" t="n">
-        <v>23142599.34860997</v>
+        <v>3402948.777647632</v>
       </c>
       <c r="D41" t="n">
-        <v>17716123.51688234</v>
+        <v>3417714.527435253</v>
       </c>
       <c r="E41" t="n">
-        <v>9222567.787748871</v>
+        <v>3044171.439376656</v>
       </c>
       <c r="F41" t="n">
-        <v>9890170.565681657</v>
+        <v>3862433.809344027</v>
       </c>
       <c r="G41" t="n">
-        <v>11126308.24577959</v>
+        <v>3281262.191391715</v>
       </c>
       <c r="H41" t="n">
-        <v>6652326.234529921</v>
+        <v>2645676.093836267</v>
       </c>
       <c r="I41" t="n">
-        <v>9627229.130140107</v>
+        <v>3389293.864312156</v>
       </c>
       <c r="J41" t="n">
-        <v>8165644.02996104</v>
+        <v>3786389.510735338</v>
       </c>
       <c r="K41" t="n">
-        <v>9673094.125238864</v>
+        <v>3124641.440532376</v>
       </c>
       <c r="L41" t="n">
-        <v>7532485.008640995</v>
+        <v>3385739.294764963</v>
       </c>
       <c r="M41" t="n">
-        <v>10852380.78415069</v>
+        <v>3557826.498611915</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9529832.259589408</v>
+        <v>4608478.737633439</v>
       </c>
       <c r="C42" t="n">
-        <v>8377234.597499344</v>
+        <v>5219898.517782868</v>
       </c>
       <c r="D42" t="n">
-        <v>9795200.419861993</v>
+        <v>4905856.210845374</v>
       </c>
       <c r="E42" t="n">
-        <v>9583090.755902059</v>
+        <v>4762379.386246176</v>
       </c>
       <c r="F42" t="n">
-        <v>10378235.20766887</v>
+        <v>4653787.146419787</v>
       </c>
       <c r="G42" t="n">
-        <v>13961269.28911691</v>
+        <v>3601560.432507764</v>
       </c>
       <c r="H42" t="n">
-        <v>8068321.286876047</v>
+        <v>4001143.027223038</v>
       </c>
       <c r="I42" t="n">
-        <v>10206025.54500942</v>
+        <v>4423429.761569188</v>
       </c>
       <c r="J42" t="n">
-        <v>11220606.91815252</v>
+        <v>4661854.691039043</v>
       </c>
       <c r="K42" t="n">
-        <v>11382418.11993544</v>
+        <v>4523184.369986673</v>
       </c>
       <c r="L42" t="n">
-        <v>9255779.394083593</v>
+        <v>4622631.614245298</v>
       </c>
       <c r="M42" t="n">
-        <v>10326220.96944933</v>
+        <v>4730816.278516733</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5801878.824267088</v>
+        <v>3100353.62835086</v>
       </c>
       <c r="C43" t="n">
-        <v>5184559.559293834</v>
+        <v>2854474.885421175</v>
       </c>
       <c r="D43" t="n">
-        <v>6577357.846731832</v>
+        <v>3299514.411405596</v>
       </c>
       <c r="E43" t="n">
-        <v>6509257.987916536</v>
+        <v>3431473.28771614</v>
       </c>
       <c r="F43" t="n">
-        <v>5873212.444265661</v>
+        <v>3721827.646385107</v>
       </c>
       <c r="G43" t="n">
-        <v>7304968.041818811</v>
+        <v>2462978.887159441</v>
       </c>
       <c r="H43" t="n">
-        <v>4815588.3684429</v>
+        <v>2371435.159809366</v>
       </c>
       <c r="I43" t="n">
-        <v>5859878.898708404</v>
+        <v>3483441.270031931</v>
       </c>
       <c r="J43" t="n">
-        <v>6944334.248266883</v>
+        <v>3528362.25676934</v>
       </c>
       <c r="K43" t="n">
-        <v>6790630.884992851</v>
+        <v>3399422.390494782</v>
       </c>
       <c r="L43" t="n">
-        <v>5432506.10750405</v>
+        <v>3595233.275677196</v>
       </c>
       <c r="M43" t="n">
-        <v>6077860.645914738</v>
+        <v>3583978.689667577</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12783865.73272691</v>
+        <v>5560497.903277525</v>
       </c>
       <c r="C44" t="n">
-        <v>14100472.55609823</v>
+        <v>6432934.061293247</v>
       </c>
       <c r="D44" t="n">
-        <v>13781761.03152021</v>
+        <v>5860341.026468451</v>
       </c>
       <c r="E44" t="n">
-        <v>13793992.97463278</v>
+        <v>6043845.520616707</v>
       </c>
       <c r="F44" t="n">
-        <v>12828661.717772</v>
+        <v>6833358.964660799</v>
       </c>
       <c r="G44" t="n">
-        <v>14333123.5649073</v>
+        <v>5527303.4977718</v>
       </c>
       <c r="H44" t="n">
-        <v>12032536.77942757</v>
+        <v>5676243.688852793</v>
       </c>
       <c r="I44" t="n">
-        <v>15141476.20825524</v>
+        <v>6690403.845772358</v>
       </c>
       <c r="J44" t="n">
-        <v>13866777.96357004</v>
+        <v>5867592.069139929</v>
       </c>
       <c r="K44" t="n">
-        <v>12055939.84548453</v>
+        <v>5713000.531015991</v>
       </c>
       <c r="L44" t="n">
-        <v>13318437.67071499</v>
+        <v>6048941.025080026</v>
       </c>
       <c r="M44" t="n">
-        <v>12271214.20020493</v>
+        <v>6826458.835591175</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6424303.500663489</v>
+        <v>3170576.787896319</v>
       </c>
       <c r="C45" t="n">
-        <v>5221338.979270343</v>
+        <v>3470066.199614719</v>
       </c>
       <c r="D45" t="n">
-        <v>5934436.378939213</v>
+        <v>2976442.486008584</v>
       </c>
       <c r="E45" t="n">
-        <v>5759332.936155842</v>
+        <v>3295898.298286289</v>
       </c>
       <c r="F45" t="n">
-        <v>6164348.241511076</v>
+        <v>3510865.359419424</v>
       </c>
       <c r="G45" t="n">
-        <v>7349302.070932491</v>
+        <v>2603921.89579976</v>
       </c>
       <c r="H45" t="n">
-        <v>5850020.206041005</v>
+        <v>2883455.595233404</v>
       </c>
       <c r="I45" t="n">
-        <v>6715605.48652049</v>
+        <v>3357482.738372879</v>
       </c>
       <c r="J45" t="n">
-        <v>6591679.566445528</v>
+        <v>3591405.049987361</v>
       </c>
       <c r="K45" t="n">
-        <v>5742550.447006617</v>
+        <v>3390487.121918672</v>
       </c>
       <c r="L45" t="n">
-        <v>5828624.969131111</v>
+        <v>3076198.713060613</v>
       </c>
       <c r="M45" t="n">
-        <v>5754110.508517794</v>
+        <v>3561452.7871583</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14630993.63691954</v>
+        <v>2275549.90462676</v>
       </c>
       <c r="C46" t="n">
-        <v>11646127.77900418</v>
+        <v>2471270.029407836</v>
       </c>
       <c r="D46" t="n">
-        <v>9776801.821402015</v>
+        <v>2624247.149886626</v>
       </c>
       <c r="E46" t="n">
-        <v>9420362.704848444</v>
+        <v>2035639.018881167</v>
       </c>
       <c r="F46" t="n">
-        <v>12070247.56183261</v>
+        <v>2285092.215333638</v>
       </c>
       <c r="G46" t="n">
-        <v>15832306.73971928</v>
+        <v>1980752.239925131</v>
       </c>
       <c r="H46" t="n">
-        <v>10210677.02979674</v>
+        <v>2091306.318848625</v>
       </c>
       <c r="I46" t="n">
-        <v>14039531.51960475</v>
+        <v>3017427.911633869</v>
       </c>
       <c r="J46" t="n">
-        <v>13996493.33593872</v>
+        <v>2171090.919178785</v>
       </c>
       <c r="K46" t="n">
-        <v>14144565.96711195</v>
+        <v>2229809.38207003</v>
       </c>
       <c r="L46" t="n">
-        <v>11765141.24199405</v>
+        <v>2210769.484800863</v>
       </c>
       <c r="M46" t="n">
-        <v>13929677.24731349</v>
+        <v>2235677.401547534</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2262368.245015364</v>
+        <v>1791740.335448853</v>
       </c>
       <c r="C47" t="n">
-        <v>2300838.58535556</v>
+        <v>1740024.753961468</v>
       </c>
       <c r="D47" t="n">
-        <v>2338141.036394295</v>
+        <v>1811530.351087971</v>
       </c>
       <c r="E47" t="n">
-        <v>2363234.54034186</v>
+        <v>1718844.473892805</v>
       </c>
       <c r="F47" t="n">
-        <v>2591263.810967023</v>
+        <v>1726499.8591127</v>
       </c>
       <c r="G47" t="n">
-        <v>2865273.093477673</v>
+        <v>1769069.057940077</v>
       </c>
       <c r="H47" t="n">
-        <v>2582282.227643839</v>
+        <v>1808006.96119813</v>
       </c>
       <c r="I47" t="n">
-        <v>2835564.620210321</v>
+        <v>1913004.462019482</v>
       </c>
       <c r="J47" t="n">
-        <v>3198410.278432872</v>
+        <v>2550085.701392321</v>
       </c>
       <c r="K47" t="n">
-        <v>3498902.158174526</v>
+        <v>2980313.655533243</v>
       </c>
       <c r="L47" t="n">
-        <v>3488602.154554903</v>
+        <v>2687662.631815312</v>
       </c>
       <c r="M47" t="n">
-        <v>3983616.181265796</v>
+        <v>2978829.128024701</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>647632.5369107764</v>
+        <v>5309815.777891809</v>
       </c>
       <c r="C48" t="n">
-        <v>650358.3322710542</v>
+        <v>5463650.975335205</v>
       </c>
       <c r="D48" t="n">
-        <v>813163.8703806944</v>
+        <v>5954908.899061297</v>
       </c>
       <c r="E48" t="n">
-        <v>747981.9923850151</v>
+        <v>5724460.006903149</v>
       </c>
       <c r="F48" t="n">
-        <v>786925.7294142629</v>
+        <v>5770442.866752186</v>
       </c>
       <c r="G48" t="n">
-        <v>1059861.957065247</v>
+        <v>5620966.508530396</v>
       </c>
       <c r="H48" t="n">
-        <v>902225.4759434609</v>
+        <v>5943121.98672835</v>
       </c>
       <c r="I48" t="n">
-        <v>962681.08765388</v>
+        <v>5924382.704494131</v>
       </c>
       <c r="J48" t="n">
-        <v>829191.1170264122</v>
+        <v>6275423.616614075</v>
       </c>
       <c r="K48" t="n">
-        <v>1264248.346214564</v>
+        <v>6080062.318645088</v>
       </c>
       <c r="L48" t="n">
-        <v>989058.129038105</v>
+        <v>5896621.764710682</v>
       </c>
       <c r="M48" t="n">
-        <v>870057.3919031804</v>
+        <v>6157587.311405611</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>726996.6355461824</v>
+        <v>498353.7420449313</v>
       </c>
       <c r="C49" t="n">
-        <v>674274.1479682879</v>
+        <v>789963.5930682243</v>
       </c>
       <c r="D49" t="n">
-        <v>839297.2659756134</v>
+        <v>578045.773547605</v>
       </c>
       <c r="E49" t="n">
-        <v>857145.735910864</v>
+        <v>555298.8123122293</v>
       </c>
       <c r="F49" t="n">
-        <v>909698.1881354146</v>
+        <v>670914.2014476995</v>
       </c>
       <c r="G49" t="n">
-        <v>902806.9553266116</v>
+        <v>538360.6228443206</v>
       </c>
       <c r="H49" t="n">
-        <v>631502.5922370772</v>
+        <v>713201.2601411706</v>
       </c>
       <c r="I49" t="n">
-        <v>801078.6577731421</v>
+        <v>1005632.047729437</v>
       </c>
       <c r="J49" t="n">
-        <v>984299.1695764177</v>
+        <v>1050636.539699922</v>
       </c>
       <c r="K49" t="n">
-        <v>958978.3098769294</v>
+        <v>803161.53004348</v>
       </c>
       <c r="L49" t="n">
-        <v>800079.0530795791</v>
+        <v>838765.0155590357</v>
       </c>
       <c r="M49" t="n">
-        <v>809619.1106677534</v>
+        <v>863658.3066906658</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1655683.449624762</v>
+        <v>2862850.919580979</v>
       </c>
       <c r="C50" t="n">
-        <v>1620659.596777723</v>
+        <v>2767042.828757433</v>
       </c>
       <c r="D50" t="n">
-        <v>1923166.324137354</v>
+        <v>2781862.106182748</v>
       </c>
       <c r="E50" t="n">
-        <v>1958621.206360522</v>
+        <v>2850699.967128216</v>
       </c>
       <c r="F50" t="n">
-        <v>1710282.64854791</v>
+        <v>2961976.521974313</v>
       </c>
       <c r="G50" t="n">
-        <v>2009154.495533299</v>
+        <v>2766721.952642638</v>
       </c>
       <c r="H50" t="n">
-        <v>1591319.237651072</v>
+        <v>2926015.510922864</v>
       </c>
       <c r="I50" t="n">
-        <v>1729470.53278241</v>
+        <v>3062533.430351979</v>
       </c>
       <c r="J50" t="n">
-        <v>2019078.144769218</v>
+        <v>3368040.667882129</v>
       </c>
       <c r="K50" t="n">
-        <v>2096623.221006219</v>
+        <v>3322639.327045572</v>
       </c>
       <c r="L50" t="n">
-        <v>1992335.514090975</v>
+        <v>3789130.389904602</v>
       </c>
       <c r="M50" t="n">
-        <v>2016036.499754906</v>
+        <v>3497738.242390084</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2477082.905894417</v>
+        <v>2875611.064522945</v>
       </c>
       <c r="C51" t="n">
-        <v>2783584.076351098</v>
+        <v>3019530.840370971</v>
       </c>
       <c r="D51" t="n">
-        <v>2476607.355184218</v>
+        <v>3079065.606216303</v>
       </c>
       <c r="E51" t="n">
-        <v>2935159.426821022</v>
+        <v>3109106.726048496</v>
       </c>
       <c r="F51" t="n">
-        <v>2680567.589053262</v>
+        <v>3102108.011107276</v>
       </c>
       <c r="G51" t="n">
-        <v>2664290.082338903</v>
+        <v>2924192.109718869</v>
       </c>
       <c r="H51" t="n">
-        <v>2233297.047666886</v>
+        <v>3187370.461997058</v>
       </c>
       <c r="I51" t="n">
-        <v>2789899.126957372</v>
+        <v>3236764.367285122</v>
       </c>
       <c r="J51" t="n">
-        <v>2797598.755738433</v>
+        <v>3603049.210175332</v>
       </c>
       <c r="K51" t="n">
-        <v>2603667.185396955</v>
+        <v>3514085.774932754</v>
       </c>
       <c r="L51" t="n">
-        <v>2835675.783730355</v>
+        <v>3519872.669702728</v>
       </c>
       <c r="M51" t="n">
-        <v>3188248.584289491</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3191194.09053636</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3492975.376391158</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2712322.758610301</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3640296.315731553</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2823556.59860483</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3214974.603713225</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2765818.321554447</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2467649.27331719</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2924945.776367512</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2947789.258932287</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3090549.307533236</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3199166.532076259</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1215406.175193662</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1362397.849475247</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1875550.802326328</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2353886.811011041</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2203281.874568662</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2101163.151719702</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1974719.076241749</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2735584.118571206</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3129401.640435473</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2621941.781277356</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2504281.380750132</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2671302.148930791</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1394664.451838634</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1255034.296059841</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1062532.770754399</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1721204.123274221</v>
-      </c>
-      <c r="F54" t="n">
-        <v>995457.1297985541</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1062115.19722162</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1313921.469389737</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1732364.282166898</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1519756.31473258</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1683780.864652437</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1534634.772432215</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1866037.719166592</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2870025.689358982</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3703132.091943958</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3431934.568038682</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4598936.332084856</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3820236.065080334</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3376111.874003727</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2943156.713057309</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3110786.010671371</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4395621.452180451</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3713876.122331031</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3277974.060092376</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3508235.762321351</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3926143.813901859</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3831502.40892874</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4632220.854521178</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4149176.819479175</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3602568.163321039</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4254842.809900532</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3136075.473761182</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4001188.560697734</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3801786.938389427</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4149139.275833428</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4502515.775169367</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4181846.056242697</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5727257.172161647</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5477173.387506071</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5776522.830758586</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6503714.01838988</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5353128.514136882</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5450963.147115179</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5041237.505592771</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5471933.931257955</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6078823.415946811</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6250305.498527028</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6140085.099650945</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5891061.132739598</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5496749.033748256</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5761550.713043039</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5811554.674933422</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6070951.458240118</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5804293.559360715</v>
-      </c>
-      <c r="G58" t="n">
-        <v>6016463.970757053</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5112050.958696111</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5372604.333184902</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6221097.727776293</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6047426.810357189</v>
-      </c>
-      <c r="L58" t="n">
-        <v>6034987.137905097</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6361185.371430219</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3541913.854114805</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3205188.993950276</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3544439.793277414</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3611773.655940244</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3113343.836532549</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3922877.28223378</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3497730.90479155</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2682425.022050747</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3456636.447247807</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4063837.475979077</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3258553.536348369</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3686395.99461901</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4465328.555425941</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4845879.229921384</v>
-      </c>
-      <c r="D60" t="n">
-        <v>5364201.794956379</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5148374.197024319</v>
-      </c>
-      <c r="F60" t="n">
-        <v>5000158.936795174</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4859276.836375059</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3888002.321270032</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4283172.435296332</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4610475.604172701</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4805097.032597729</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4791482.485738102</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4864641.591344414</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3080579.686523902</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3053588.078387442</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2792094.445224143</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3270309.977673441</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3411908.374293197</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3682695.888555928</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2452031.312484213</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2356748.914736839</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3476010.192508364</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3511113.932856735</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3395638.66970664</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3642214.482355517</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>7297177.534850842</v>
-      </c>
-      <c r="C62" t="n">
-        <v>6493539.627066573</v>
-      </c>
-      <c r="D62" t="n">
-        <v>7367399.260748492</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6873149.676356749</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6552410.582157309</v>
-      </c>
-      <c r="G62" t="n">
-        <v>7401994.416222673</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6010048.808416099</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6368480.716282934</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6666619.242076728</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6700883.629433388</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6330623.791889994</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6754748.027956088</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3221342.488890361</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3405732.449160327</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3875804.841265581</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3192969.823773813</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3335849.137039993</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3597390.165329371</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2926806.848389066</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2961778.971369726</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3420567.662163994</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3765503.931727276</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3600119.391795237</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3197067.149604611</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2188993.623922263</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2254187.868315043</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2452694.573967766</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2619272.922487676</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2076648.334032569</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2272624.947915483</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1983314.119972833</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2077367.948947066</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3035025.664026727</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2140911.734558125</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2215645.332077894</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2231192.443353842</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1600326.407830118</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1628536.263546871</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1690047.847604718</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1743380.375425171</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1712877.102843512</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1717027.855846285</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1736186.074749435</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1753559.136815432</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1803621.057192828</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2501077.29030448</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3014416.929351941</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2743625.374991434</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5358287.802844439</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5358933.456849201</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5512330.706755828</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5793716.079533975</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5657279.533100587</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5925007.063892128</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5517618.285701293</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5842230.620297409</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6065795.769623334</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6448103.639606957</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6018584.513360194</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5855151.510501539</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>765209.6861987588</v>
-      </c>
-      <c r="C67" t="n">
-        <v>643983.5790444684</v>
-      </c>
-      <c r="D67" t="n">
-        <v>894509.4897880242</v>
-      </c>
-      <c r="E67" t="n">
-        <v>699745.0936659152</v>
-      </c>
-      <c r="F67" t="n">
-        <v>684272.3502397528</v>
-      </c>
-      <c r="G67" t="n">
-        <v>789392.53838632</v>
-      </c>
-      <c r="H67" t="n">
-        <v>651212.6542019043</v>
-      </c>
-      <c r="I67" t="n">
-        <v>834062.6757515749</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1105242.515342371</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1129628.676410419</v>
-      </c>
-      <c r="L67" t="n">
-        <v>890172.8195179179</v>
-      </c>
-      <c r="M67" t="n">
-        <v>944507.1853996643</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3160378.545556844</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3115809.651955156</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2969863.168580055</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3133416.25780891</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3114121.826239721</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3186854.77487676</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3049231.622619429</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3260333.988320825</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3373935.004818297</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3782604.099006683</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3677014.014875803</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4222943.099706746</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3018989.017143747</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3042299.295573458</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3315525.063773784</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3332184.347211573</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3427365.326811447</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3403284.525343116</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3222174.215492551</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3510952.327315297</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3616635.0209476</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3988187.281552724</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3920024.980759247</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3899036.072210453</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7306878.578869862</v>
-      </c>
-      <c r="C70" t="n">
-        <v>4893397.327780245</v>
-      </c>
-      <c r="D70" t="n">
-        <v>6008946.669697274</v>
-      </c>
-      <c r="E70" t="n">
-        <v>6143226.249473681</v>
-      </c>
-      <c r="F70" t="n">
-        <v>5888511.80721573</v>
-      </c>
-      <c r="G70" t="n">
-        <v>5904279.240804373</v>
-      </c>
-      <c r="H70" t="n">
-        <v>5409561.198393227</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4890890.205319737</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3498443.577125013</v>
-      </c>
-      <c r="K70" t="n">
-        <v>4369701.326507529</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3798138.685605214</v>
-      </c>
-      <c r="M70" t="n">
-        <v>3604529.039290812</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>16762671.23000995</v>
-      </c>
-      <c r="C71" t="n">
-        <v>18199242.44034588</v>
-      </c>
-      <c r="D71" t="n">
-        <v>19067274.34934947</v>
-      </c>
-      <c r="E71" t="n">
-        <v>19630838.80152569</v>
-      </c>
-      <c r="F71" t="n">
-        <v>22179308.08785592</v>
-      </c>
-      <c r="G71" t="n">
-        <v>43041718.71605846</v>
-      </c>
-      <c r="H71" t="n">
-        <v>12598798.27051954</v>
-      </c>
-      <c r="I71" t="n">
-        <v>24401218.10355398</v>
-      </c>
-      <c r="J71" t="n">
-        <v>22854016.61880436</v>
-      </c>
-      <c r="K71" t="n">
-        <v>26730153.3985991</v>
-      </c>
-      <c r="L71" t="n">
-        <v>30425722.04591115</v>
-      </c>
-      <c r="M71" t="n">
-        <v>29953305.67936209</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>5207003.592787103</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2503265.098725782</v>
-      </c>
-      <c r="D72" t="n">
-        <v>8035756.587775723</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3160096.006592506</v>
-      </c>
-      <c r="F72" t="n">
-        <v>7611916.263973154</v>
-      </c>
-      <c r="G72" t="n">
-        <v>5034326.791227852</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4207928.18774278</v>
-      </c>
-      <c r="I72" t="n">
-        <v>9702703.217161357</v>
-      </c>
-      <c r="J72" t="n">
-        <v>11277752.18878123</v>
-      </c>
-      <c r="K72" t="n">
-        <v>6891645.91490717</v>
-      </c>
-      <c r="L72" t="n">
-        <v>9484621.537953064</v>
-      </c>
-      <c r="M72" t="n">
-        <v>4466966.519075637</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>8480701.231537335</v>
-      </c>
-      <c r="C73" t="n">
-        <v>8671913.052330902</v>
-      </c>
-      <c r="D73" t="n">
-        <v>8323433.92622083</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9616684.717441848</v>
-      </c>
-      <c r="F73" t="n">
-        <v>8086553.852567169</v>
-      </c>
-      <c r="G73" t="n">
-        <v>8648979.247916745</v>
-      </c>
-      <c r="H73" t="n">
-        <v>8096473.754469992</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9725783.842510972</v>
-      </c>
-      <c r="J73" t="n">
-        <v>10893928.91377734</v>
-      </c>
-      <c r="K73" t="n">
-        <v>10087153.81672186</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9655868.48017839</v>
-      </c>
-      <c r="M73" t="n">
-        <v>9086090.299210861</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>19980699.04807941</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16272142.76476983</v>
-      </c>
-      <c r="D74" t="n">
-        <v>17901106.23196173</v>
-      </c>
-      <c r="E74" t="n">
-        <v>17752575.32462778</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17856332.2221382</v>
-      </c>
-      <c r="G74" t="n">
-        <v>24623045.40286068</v>
-      </c>
-      <c r="H74" t="n">
-        <v>13330826.89999096</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21290246.007781</v>
-      </c>
-      <c r="J74" t="n">
-        <v>21367611.17827225</v>
-      </c>
-      <c r="K74" t="n">
-        <v>22415102.89471212</v>
-      </c>
-      <c r="L74" t="n">
-        <v>22150310.19047019</v>
-      </c>
-      <c r="M74" t="n">
-        <v>21595986.38100959</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>24933706.3875691</v>
-      </c>
-      <c r="C75" t="n">
-        <v>26164223.37224915</v>
-      </c>
-      <c r="D75" t="n">
-        <v>24607630.96829566</v>
-      </c>
-      <c r="E75" t="n">
-        <v>24645131.19597675</v>
-      </c>
-      <c r="F75" t="n">
-        <v>25167180.92146235</v>
-      </c>
-      <c r="G75" t="n">
-        <v>35408149.66552803</v>
-      </c>
-      <c r="H75" t="n">
-        <v>22596951.32768593</v>
-      </c>
-      <c r="I75" t="n">
-        <v>22002588.14141103</v>
-      </c>
-      <c r="J75" t="n">
-        <v>27511032.17724015</v>
-      </c>
-      <c r="K75" t="n">
-        <v>28942811.3489083</v>
-      </c>
-      <c r="L75" t="n">
-        <v>30557742.98277667</v>
-      </c>
-      <c r="M75" t="n">
-        <v>31763753.75796035</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>11424177.64883862</v>
-      </c>
-      <c r="C76" t="n">
-        <v>8746695.312406898</v>
-      </c>
-      <c r="D76" t="n">
-        <v>7074825.819534089</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6802074.658393885</v>
-      </c>
-      <c r="F76" t="n">
-        <v>7637937.123785164</v>
-      </c>
-      <c r="G76" t="n">
-        <v>8497939.414675299</v>
-      </c>
-      <c r="H76" t="n">
-        <v>10052678.15807179</v>
-      </c>
-      <c r="I76" t="n">
-        <v>10837524.48894205</v>
-      </c>
-      <c r="J76" t="n">
-        <v>11026501.93049845</v>
-      </c>
-      <c r="K76" t="n">
-        <v>10081430.01821702</v>
-      </c>
-      <c r="L76" t="n">
-        <v>8160081.621264426</v>
-      </c>
-      <c r="M76" t="n">
-        <v>8760431.164030954</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>18411181.56794504</v>
-      </c>
-      <c r="C77" t="n">
-        <v>18301170.02214115</v>
-      </c>
-      <c r="D77" t="n">
-        <v>18334590.94690964</v>
-      </c>
-      <c r="E77" t="n">
-        <v>18654111.49795379</v>
-      </c>
-      <c r="F77" t="n">
-        <v>18918472.42072899</v>
-      </c>
-      <c r="G77" t="n">
-        <v>19069196.41248266</v>
-      </c>
-      <c r="H77" t="n">
-        <v>18315257.15723079</v>
-      </c>
-      <c r="I77" t="n">
-        <v>18571740.79786158</v>
-      </c>
-      <c r="J77" t="n">
-        <v>18624884.33734813</v>
-      </c>
-      <c r="K77" t="n">
-        <v>19092081.79338168</v>
-      </c>
-      <c r="L77" t="n">
-        <v>19691772.22889829</v>
-      </c>
-      <c r="M77" t="n">
-        <v>20650448.69877939</v>
+        <v>3572707.023787708</v>
       </c>
     </row>
   </sheetData>
